--- a/uk_measles_cases.xlsx
+++ b/uk_measles_cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertorojas-laguna1/Desktop/RA_Lothar/RA_Jaakko/Jaakko_Measles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertorojas-laguna1/Desktop/RA_Lothar/RA_Jaakko/MMR_Wales_Vaccines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F67BBDE-7662-5047-891E-872B871D6B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6252C7BD-B15D-AD46-B3F7-DF13951D1351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5332BD85-8C73-CD42-9C24-5A4CAA3967E9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{5332BD85-8C73-CD42-9C24-5A4CAA3967E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>30-34y</t>
   </si>
   <si>
-    <t>&gt;=35y</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -103,7 +100,10 @@
     <t>total</t>
   </si>
   <si>
-    <t>&lt;=1y</t>
+    <t>0-1y</t>
+  </si>
+  <si>
+    <t>35+y</t>
   </si>
 </sst>
 </file>
@@ -475,43 +475,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -519,7 +519,7 @@
         <v>1996</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>1996</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>1996</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>1996</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -970,7 +970,7 @@
         <v>1997</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>1997</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>1997</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>1997</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1421,7 +1421,7 @@
         <v>1998</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>1998</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>1998</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>1998</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>1999</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>1999</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>1999</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>1999</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>2000</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>2000</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>2000</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>2000</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>2001</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>2001</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -3143,7 +3143,7 @@
         <v>2001</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>2001</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67" s="2">
         <v>3</v>
@@ -3225,7 +3225,7 @@
         <v>2002</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>2002</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>2002</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -3635,7 +3635,7 @@
         <v>2002</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C78" s="2">
         <v>8</v>
@@ -3676,7 +3676,7 @@
         <v>2003</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>2003</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>2003</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -4086,7 +4086,7 @@
         <v>2003</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -4127,7 +4127,7 @@
         <v>2004</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4455,7 +4455,7 @@
         <v>2004</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4496,7 +4496,7 @@
         <v>2004</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4537,7 +4537,7 @@
         <v>2004</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C100" s="2">
         <v>2</v>
@@ -4578,7 +4578,7 @@
         <v>2005</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>2005</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>2005</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>2005</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5029,7 +5029,7 @@
         <v>2006</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C112" s="2">
         <v>3</v>
@@ -5357,7 +5357,7 @@
         <v>2006</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5398,7 +5398,7 @@
         <v>2006</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>2006</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C122" s="2">
         <v>12</v>
@@ -5480,7 +5480,7 @@
         <v>2007</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C123" s="2">
         <v>1</v>
@@ -5808,7 +5808,7 @@
         <v>2007</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C131" s="2">
         <v>1</v>
@@ -5849,7 +5849,7 @@
         <v>2007</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5890,7 +5890,7 @@
         <v>2007</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C133" s="2">
         <v>12</v>
@@ -5931,7 +5931,7 @@
         <v>2008</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C134" s="2">
         <v>2</v>
@@ -6259,7 +6259,7 @@
         <v>2008</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6300,7 +6300,7 @@
         <v>2008</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6341,7 +6341,7 @@
         <v>2008</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C144" s="2">
         <v>17</v>
@@ -6382,7 +6382,7 @@
         <v>2009</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C145" s="2">
         <v>10</v>
@@ -6710,7 +6710,7 @@
         <v>2009</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C153" s="2">
         <v>1</v>
@@ -6751,7 +6751,7 @@
         <v>2009</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6792,7 +6792,7 @@
         <v>2009</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C155" s="2">
         <v>122</v>
@@ -6833,7 +6833,7 @@
         <v>2010</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C156" s="2">
         <v>1</v>
@@ -7161,7 +7161,7 @@
         <v>2010</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C164" s="2">
         <v>4</v>
@@ -7202,7 +7202,7 @@
         <v>2010</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -7243,7 +7243,7 @@
         <v>2010</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C166" s="2">
         <v>10</v>
@@ -7284,7 +7284,7 @@
         <v>2011</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C167" s="2">
         <v>2</v>
@@ -7612,7 +7612,7 @@
         <v>2011</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         <v>2011</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>2011</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C177" s="2">
         <v>15</v>
@@ -7735,7 +7735,7 @@
         <v>2012</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C178" s="2">
         <v>2</v>
@@ -8063,7 +8063,7 @@
         <v>2012</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C186" s="2">
         <v>6</v>
@@ -8104,7 +8104,7 @@
         <v>2012</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>2012</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C188" s="2">
         <v>49</v>
@@ -8186,7 +8186,7 @@
         <v>2013</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C189" s="2">
         <v>47</v>
@@ -8514,7 +8514,7 @@
         <v>2013</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C197" s="2">
         <v>21</v>
@@ -8555,7 +8555,7 @@
         <v>2013</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -8596,7 +8596,7 @@
         <v>2013</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C199" s="2">
         <v>376</v>
@@ -8637,7 +8637,7 @@
         <v>2014</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C200" s="2">
         <v>3</v>
@@ -8965,7 +8965,7 @@
         <v>2014</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C208" s="2">
         <v>3</v>
@@ -9006,7 +9006,7 @@
         <v>2014</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C209" s="2">
         <v>6</v>
@@ -9047,7 +9047,7 @@
         <v>2015</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C210" s="2">
         <v>0</v>
@@ -9375,7 +9375,7 @@
         <v>2015</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>2015</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C219" s="2">
         <v>2</v>
@@ -9457,7 +9457,7 @@
         <v>2016</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
@@ -9785,7 +9785,7 @@
         <v>2016</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C228" s="2">
         <v>1</v>
@@ -9826,7 +9826,7 @@
         <v>2016</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C229" s="2">
         <v>1</v>
@@ -9867,7 +9867,7 @@
         <v>2017</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C230" s="2">
         <v>0</v>
@@ -10195,7 +10195,7 @@
         <v>2017</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C238" s="2">
         <v>0</v>
@@ -10236,7 +10236,7 @@
         <v>2017</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C239" s="2">
         <v>2</v>
@@ -10277,7 +10277,7 @@
         <v>2018</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C240" s="2">
         <v>2</v>
@@ -10605,7 +10605,7 @@
         <v>2018</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C248" s="2">
         <v>2</v>
@@ -10646,7 +10646,7 @@
         <v>2018</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C249" s="2">
         <v>14</v>
@@ -10687,7 +10687,7 @@
         <v>2019</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C250" s="2">
         <v>0</v>
@@ -11015,7 +11015,7 @@
         <v>2019</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C258" s="2">
         <v>1</v>
@@ -11056,7 +11056,7 @@
         <v>2019</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C259" s="2">
         <v>3</v>
@@ -11097,7 +11097,7 @@
         <v>2020</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C260" s="2">
         <v>0</v>
@@ -11425,7 +11425,7 @@
         <v>2020</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C268" s="2">
         <v>0</v>
@@ -11466,7 +11466,7 @@
         <v>2020</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C269" s="2">
         <v>0</v>
@@ -11507,7 +11507,7 @@
         <v>2021</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C270" s="2">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         <v>2021</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C278" s="2">
         <v>0</v>
@@ -11876,7 +11876,7 @@
         <v>2021</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C279" s="2">
         <v>0</v>
